--- a/Extracted Data/VRU Headform - Color-wise graphs/2024 Datasheets & Spreadsheets_combined.xlsx
+++ b/Extracted Data/VRU Headform - Color-wise graphs/2024 Datasheets & Spreadsheets_combined.xlsx
@@ -24,13 +24,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -41,7 +44,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -49,12 +52,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -420,14 +432,27 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Input Sheet</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -438,14 +463,27 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Input Sheet</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -456,14 +494,27 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Input Sheet</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -474,14 +525,27 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Input Sheet</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -492,14 +556,27 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Input Sheet</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -510,14 +587,27 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Input Sheet</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -528,14 +618,27 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Input Sheet</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -546,14 +649,27 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Input Sheet</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Extracted Data/VRU Headform - Color-wise graphs/2024 Datasheets & Spreadsheets_combined.xlsx
+++ b/Extracted Data/VRU Headform - Color-wise graphs/2024 Datasheets & Spreadsheets_combined.xlsx
@@ -443,12 +443,12 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Input Sheet</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Value</t>
+          <t>Car Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Values</t>
         </is>
       </c>
     </row>
@@ -474,12 +474,12 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Input Sheet</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Value</t>
+          <t>Car Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Values</t>
         </is>
       </c>
     </row>
@@ -505,12 +505,12 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Input Sheet</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Value</t>
+          <t>Car Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Values</t>
         </is>
       </c>
     </row>
@@ -536,12 +536,12 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Input Sheet</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Value</t>
+          <t>Car Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Values</t>
         </is>
       </c>
     </row>
@@ -567,12 +567,12 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Input Sheet</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Value</t>
+          <t>Car Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Values</t>
         </is>
       </c>
     </row>
@@ -598,12 +598,12 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Input Sheet</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Value</t>
+          <t>Car Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Values</t>
         </is>
       </c>
     </row>
@@ -629,12 +629,12 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Input Sheet</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Value</t>
+          <t>Car Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Values</t>
         </is>
       </c>
     </row>
@@ -660,12 +660,12 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Input Sheet</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Value</t>
+          <t>Car Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Values</t>
         </is>
       </c>
     </row>

--- a/Extracted Data/VRU Headform - Color-wise graphs/2024 Datasheets & Spreadsheets_combined.xlsx
+++ b/Extracted Data/VRU Headform - Color-wise graphs/2024 Datasheets & Spreadsheets_combined.xlsx
@@ -24,16 +24,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -44,7 +41,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -52,21 +49,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -432,27 +420,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Car Name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Values</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -463,27 +438,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Car Name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Values</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -494,27 +456,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Car Name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Values</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -525,27 +474,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Car Name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Values</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -556,27 +492,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Car Name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Values</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -587,27 +510,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Car Name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Values</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -618,27 +528,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Car Name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Values</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -649,27 +546,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Car Name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Values</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Extracted Data/VRU Headform - Color-wise graphs/2024 Datasheets & Spreadsheets_combined.xlsx
+++ b/Extracted Data/VRU Headform - Color-wise graphs/2024 Datasheets & Spreadsheets_combined.xlsx
@@ -420,14 +420,139 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Car Name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Values</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Ford Tourneo Custom</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ZEEKR 001</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>MAXUS MIFA 7</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>VW Passat</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Škoda Kodiaq</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>BMW X2</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Renault Rafale HEV</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz E-Class</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Suzuki Swift</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Dacia Duster</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Renault Espace</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Toyota C-HR</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Honda CR-V</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>NIO EL6</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -438,14 +563,139 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Car Name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Values</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Ford Tourneo Custom</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ZEEKR 001</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>MAXUS MIFA 7</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>VW Passat</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Škoda Kodiaq</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>BMW X2</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Renault Rafale HEV</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz E-Class</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Suzuki Swift</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Dacia Duster</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Renault Espace</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Toyota C-HR</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Honda CR-V</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>NIO EL6</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -456,14 +706,139 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Car Name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Values</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Ford Tourneo Custom</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ZEEKR 001</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>MAXUS MIFA 7</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>VW Passat</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Škoda Kodiaq</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>BMW X2</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Renault Rafale HEV</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz E-Class</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Suzuki Swift</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Dacia Duster</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Renault Espace</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Toyota C-HR</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Honda CR-V</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>NIO EL6</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -474,14 +849,139 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Car Name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Values</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Ford Tourneo Custom</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ZEEKR 001</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>MAXUS MIFA 7</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>VW Passat</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Škoda Kodiaq</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>BMW X2</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Renault Rafale HEV</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz E-Class</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Suzuki Swift</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Dacia Duster</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Renault Espace</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Toyota C-HR</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Honda CR-V</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>NIO EL6</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -492,14 +992,139 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Car Name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Values</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Ford Tourneo Custom</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ZEEKR 001</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>MAXUS MIFA 7</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>VW Passat</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Škoda Kodiaq</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>BMW X2</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Renault Rafale HEV</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz E-Class</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Suzuki Swift</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Dacia Duster</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Renault Espace</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Toyota C-HR</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Honda CR-V</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>NIO EL6</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -510,14 +1135,139 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Car Name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Values</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Ford Tourneo Custom</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ZEEKR 001</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>MAXUS MIFA 7</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>VW Passat</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Škoda Kodiaq</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>BMW X2</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Renault Rafale HEV</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz E-Class</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Suzuki Swift</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Dacia Duster</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Renault Espace</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Toyota C-HR</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Honda CR-V</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>NIO EL6</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -528,14 +1278,139 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Car Name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Values</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Ford Tourneo Custom</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ZEEKR 001</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>MAXUS MIFA 7</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>VW Passat</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Škoda Kodiaq</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>BMW X2</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Renault Rafale HEV</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz E-Class</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Suzuki Swift</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Dacia Duster</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Renault Espace</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Toyota C-HR</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Honda CR-V</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>NIO EL6</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -546,14 +1421,139 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Car Name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Values</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Ford Tourneo Custom</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ZEEKR 001</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>MAXUS MIFA 7</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>VW Passat</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Škoda Kodiaq</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>BMW X2</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Renault Rafale HEV</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz E-Class</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Suzuki Swift</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Dacia Duster</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Renault Espace</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Toyota C-HR</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Honda CR-V</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>NIO EL6</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Extracted Data/VRU Headform - Color-wise graphs/2024 Datasheets & Spreadsheets_combined.xlsx
+++ b/Extracted Data/VRU Headform - Color-wise graphs/2024 Datasheets & Spreadsheets_combined.xlsx
@@ -446,7 +446,11 @@
           <t>Ford Tourneo Custom</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>D Green</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -454,7 +458,11 @@
           <t>ZEEKR 001</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>D Green</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -462,7 +470,11 @@
           <t>MAXUS MIFA 7</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>D Green</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -470,7 +482,11 @@
           <t>VW Passat</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>D Green</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -478,7 +494,11 @@
           <t>Škoda Kodiaq</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>D Green</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -486,7 +506,6 @@
           <t>BMW X2</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -494,7 +513,6 @@
           <t>Renault Rafale HEV</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -502,7 +520,11 @@
           <t>Mercedes-Benz E-Class</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>D Green</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -510,7 +532,11 @@
           <t>Suzuki Swift</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>D Green</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -518,7 +544,11 @@
           <t>Dacia Duster</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>D Green</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -526,7 +556,6 @@
           <t>Renault Espace</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -534,7 +563,11 @@
           <t>Toyota C-HR</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>D Green</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -542,7 +575,11 @@
           <t>Honda CR-V</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>D Green</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -550,7 +587,11 @@
           <t>NIO EL6</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>D Green</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -589,7 +630,11 @@
           <t>Ford Tourneo Custom</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -597,7 +642,11 @@
           <t>ZEEKR 001</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -605,7 +654,11 @@
           <t>MAXUS MIFA 7</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -613,7 +666,11 @@
           <t>VW Passat</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -621,7 +678,11 @@
           <t>Škoda Kodiaq</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -629,7 +690,11 @@
           <t>BMW X2</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -637,7 +702,11 @@
           <t>Renault Rafale HEV</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -645,7 +714,11 @@
           <t>Mercedes-Benz E-Class</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -653,7 +726,11 @@
           <t>Suzuki Swift</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -661,7 +738,11 @@
           <t>Dacia Duster</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -669,7 +750,11 @@
           <t>Renault Espace</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -677,7 +762,11 @@
           <t>Toyota C-HR</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -685,7 +774,11 @@
           <t>Honda CR-V</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -693,7 +786,11 @@
           <t>NIO EL6</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -732,7 +829,11 @@
           <t>Ford Tourneo Custom</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -740,7 +841,11 @@
           <t>ZEEKR 001</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -748,7 +853,11 @@
           <t>MAXUS MIFA 7</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -756,7 +865,11 @@
           <t>VW Passat</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -764,7 +877,11 @@
           <t>Škoda Kodiaq</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -772,7 +889,11 @@
           <t>BMW X2</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -780,7 +901,11 @@
           <t>Renault Rafale HEV</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -788,7 +913,11 @@
           <t>Mercedes-Benz E-Class</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -796,7 +925,11 @@
           <t>Suzuki Swift</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -804,7 +937,11 @@
           <t>Dacia Duster</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -812,7 +949,11 @@
           <t>Renault Espace</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -820,7 +961,11 @@
           <t>Toyota C-HR</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -828,7 +973,11 @@
           <t>Honda CR-V</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -836,7 +985,11 @@
           <t>NIO EL6</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -875,7 +1028,11 @@
           <t>Ford Tourneo Custom</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -883,7 +1040,11 @@
           <t>ZEEKR 001</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -891,7 +1052,11 @@
           <t>MAXUS MIFA 7</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -899,7 +1064,11 @@
           <t>VW Passat</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -907,7 +1076,11 @@
           <t>Škoda Kodiaq</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -915,7 +1088,11 @@
           <t>BMW X2</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -923,7 +1100,11 @@
           <t>Renault Rafale HEV</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -931,7 +1112,11 @@
           <t>Mercedes-Benz E-Class</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -939,7 +1124,11 @@
           <t>Suzuki Swift</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -947,7 +1136,11 @@
           <t>Dacia Duster</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -955,7 +1148,11 @@
           <t>Renault Espace</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -963,7 +1160,11 @@
           <t>Toyota C-HR</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -971,7 +1172,11 @@
           <t>Honda CR-V</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -979,7 +1184,11 @@
           <t>NIO EL6</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1018,7 +1227,11 @@
           <t>Ford Tourneo Custom</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1026,7 +1239,11 @@
           <t>ZEEKR 001</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1034,7 +1251,11 @@
           <t>MAXUS MIFA 7</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1042,7 +1263,11 @@
           <t>VW Passat</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1050,7 +1275,11 @@
           <t>Škoda Kodiaq</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1058,7 +1287,11 @@
           <t>BMW X2</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1066,7 +1299,11 @@
           <t>Renault Rafale HEV</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1074,7 +1311,11 @@
           <t>Mercedes-Benz E-Class</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1082,7 +1323,11 @@
           <t>Suzuki Swift</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1090,7 +1335,11 @@
           <t>Dacia Duster</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1098,7 +1347,11 @@
           <t>Renault Espace</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1106,7 +1359,11 @@
           <t>Toyota C-HR</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1114,7 +1371,11 @@
           <t>Honda CR-V</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1122,7 +1383,11 @@
           <t>NIO EL6</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1161,7 +1426,11 @@
           <t>Ford Tourneo Custom</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1169,7 +1438,11 @@
           <t>ZEEKR 001</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1177,7 +1450,11 @@
           <t>MAXUS MIFA 7</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1185,7 +1462,11 @@
           <t>VW Passat</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1193,7 +1474,11 @@
           <t>Škoda Kodiaq</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1201,7 +1486,11 @@
           <t>BMW X2</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1209,7 +1498,11 @@
           <t>Renault Rafale HEV</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1217,7 +1510,11 @@
           <t>Mercedes-Benz E-Class</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1225,7 +1522,11 @@
           <t>Suzuki Swift</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1233,7 +1534,11 @@
           <t>Dacia Duster</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1241,7 +1546,11 @@
           <t>Renault Espace</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1249,7 +1558,11 @@
           <t>Toyota C-HR</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1257,7 +1570,11 @@
           <t>Honda CR-V</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1265,7 +1582,11 @@
           <t>NIO EL6</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1304,7 +1625,11 @@
           <t>Ford Tourneo Custom</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1312,7 +1637,11 @@
           <t>ZEEKR 001</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1320,7 +1649,11 @@
           <t>MAXUS MIFA 7</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1328,7 +1661,11 @@
           <t>VW Passat</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1336,7 +1673,11 @@
           <t>Škoda Kodiaq</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1344,7 +1685,11 @@
           <t>BMW X2</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1352,7 +1697,11 @@
           <t>Renault Rafale HEV</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1360,7 +1709,11 @@
           <t>Mercedes-Benz E-Class</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1368,7 +1721,11 @@
           <t>Suzuki Swift</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1376,7 +1733,11 @@
           <t>Dacia Duster</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1384,7 +1745,11 @@
           <t>Renault Espace</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1392,7 +1757,11 @@
           <t>Toyota C-HR</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1400,7 +1769,11 @@
           <t>Honda CR-V</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1408,7 +1781,11 @@
           <t>NIO EL6</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1447,7 +1824,11 @@
           <t>Ford Tourneo Custom</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1455,7 +1836,11 @@
           <t>ZEEKR 001</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1463,7 +1848,11 @@
           <t>MAXUS MIFA 7</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1471,7 +1860,11 @@
           <t>VW Passat</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1479,7 +1872,11 @@
           <t>Škoda Kodiaq</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1487,7 +1884,11 @@
           <t>BMW X2</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1495,7 +1896,11 @@
           <t>Renault Rafale HEV</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1503,7 +1908,11 @@
           <t>Mercedes-Benz E-Class</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1511,7 +1920,11 @@
           <t>Suzuki Swift</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1519,7 +1932,11 @@
           <t>Dacia Duster</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1527,7 +1944,11 @@
           <t>Renault Espace</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1535,7 +1956,11 @@
           <t>Toyota C-HR</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1543,7 +1968,11 @@
           <t>Honda CR-V</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1551,7 +1980,11 @@
           <t>NIO EL6</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Extracted Data/VRU Headform - Color-wise graphs/2024 Datasheets & Spreadsheets_combined.xlsx
+++ b/Extracted Data/VRU Headform - Color-wise graphs/2024 Datasheets & Spreadsheets_combined.xlsx
@@ -446,10 +446,8 @@
           <t>Ford Tourneo Custom</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>D Green</t>
-        </is>
+      <c r="B2" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -458,10 +456,8 @@
           <t>ZEEKR 001</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>D Green</t>
-        </is>
+      <c r="B3" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -470,10 +466,8 @@
           <t>MAXUS MIFA 7</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>D Green</t>
-        </is>
+      <c r="B4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -482,10 +476,8 @@
           <t>VW Passat</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>D Green</t>
-        </is>
+      <c r="B5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -494,10 +486,8 @@
           <t>Škoda Kodiaq</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>D Green</t>
-        </is>
+      <c r="B6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -520,10 +510,8 @@
           <t>Mercedes-Benz E-Class</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>D Green</t>
-        </is>
+      <c r="B9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -532,10 +520,8 @@
           <t>Suzuki Swift</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>D Green</t>
-        </is>
+      <c r="B10" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="11">
@@ -544,10 +530,8 @@
           <t>Dacia Duster</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>D Green</t>
-        </is>
+      <c r="B11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -563,10 +547,8 @@
           <t>Toyota C-HR</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>D Green</t>
-        </is>
+      <c r="B13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -575,10 +557,8 @@
           <t>Honda CR-V</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>D Green</t>
-        </is>
+      <c r="B14" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="15">
@@ -587,10 +567,8 @@
           <t>NIO EL6</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>D Green</t>
-        </is>
+      <c r="B15" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -630,10 +608,8 @@
           <t>Ford Tourneo Custom</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
+      <c r="B2" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="3">
@@ -642,10 +618,8 @@
           <t>ZEEKR 001</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
+      <c r="B3" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="4">
@@ -654,10 +628,8 @@
           <t>MAXUS MIFA 7</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
+      <c r="B4" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="5">
@@ -666,10 +638,8 @@
           <t>VW Passat</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
+      <c r="B5" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="6">
@@ -678,10 +648,8 @@
           <t>Škoda Kodiaq</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
+      <c r="B6" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="7">
@@ -690,10 +658,8 @@
           <t>BMW X2</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
+      <c r="B7" t="n">
+        <v>96</v>
       </c>
     </row>
     <row r="8">
@@ -702,10 +668,8 @@
           <t>Renault Rafale HEV</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
+      <c r="B8" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="9">
@@ -714,10 +678,8 @@
           <t>Mercedes-Benz E-Class</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
+      <c r="B9" t="n">
+        <v>152</v>
       </c>
     </row>
     <row r="10">
@@ -726,10 +688,8 @@
           <t>Suzuki Swift</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
+      <c r="B10" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="11">
@@ -738,10 +698,8 @@
           <t>Dacia Duster</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
+      <c r="B11" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="12">
@@ -750,10 +708,8 @@
           <t>Renault Espace</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
+      <c r="B12" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="13">
@@ -762,10 +718,8 @@
           <t>Toyota C-HR</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
+      <c r="B13" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="14">
@@ -774,10 +728,8 @@
           <t>Honda CR-V</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
+      <c r="B14" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="15">
@@ -786,10 +738,8 @@
           <t>NIO EL6</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
+      <c r="B15" t="n">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -829,10 +779,8 @@
           <t>Ford Tourneo Custom</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
+      <c r="B2" t="n">
+        <v>65.25</v>
       </c>
     </row>
     <row r="3">
@@ -841,10 +789,8 @@
           <t>ZEEKR 001</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
+      <c r="B3" t="n">
+        <v>37.5</v>
       </c>
     </row>
     <row r="4">
@@ -853,10 +799,8 @@
           <t>MAXUS MIFA 7</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
+      <c r="B4" t="n">
+        <v>81.75</v>
       </c>
     </row>
     <row r="5">
@@ -865,10 +809,8 @@
           <t>VW Passat</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
+      <c r="B5" t="n">
+        <v>75.75</v>
       </c>
     </row>
     <row r="6">
@@ -877,10 +819,8 @@
           <t>Škoda Kodiaq</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
+      <c r="B6" t="n">
+        <v>108.75</v>
       </c>
     </row>
     <row r="7">
@@ -889,10 +829,8 @@
           <t>BMW X2</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
+      <c r="B7" t="n">
+        <v>26.25</v>
       </c>
     </row>
     <row r="8">
@@ -901,10 +839,8 @@
           <t>Renault Rafale HEV</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
+      <c r="B8" t="n">
+        <v>32.25</v>
       </c>
     </row>
     <row r="9">
@@ -913,10 +849,8 @@
           <t>Mercedes-Benz E-Class</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
+      <c r="B9" t="n">
+        <v>32.25</v>
       </c>
     </row>
     <row r="10">
@@ -925,10 +859,8 @@
           <t>Suzuki Swift</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
+      <c r="B10" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="11">
@@ -937,10 +869,8 @@
           <t>Dacia Duster</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
+      <c r="B11" t="n">
+        <v>67.5</v>
       </c>
     </row>
     <row r="12">
@@ -949,10 +879,8 @@
           <t>Renault Espace</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
+      <c r="B12" t="n">
+        <v>32.25</v>
       </c>
     </row>
     <row r="13">
@@ -961,10 +889,8 @@
           <t>Toyota C-HR</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
+      <c r="B13" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="14">
@@ -973,10 +899,8 @@
           <t>Honda CR-V</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
+      <c r="B14" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="15">
@@ -985,10 +909,8 @@
           <t>NIO EL6</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
+      <c r="B15" t="n">
+        <v>53.25</v>
       </c>
     </row>
   </sheetData>
@@ -1028,10 +950,8 @@
           <t>Ford Tourneo Custom</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
+      <c r="B2" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="3">
@@ -1040,10 +960,8 @@
           <t>ZEEKR 001</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
+      <c r="B3" t="n">
+        <v>15.5</v>
       </c>
     </row>
     <row r="4">
@@ -1052,10 +970,8 @@
           <t>MAXUS MIFA 7</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
+      <c r="B4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1064,10 +980,8 @@
           <t>VW Passat</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
+      <c r="B5" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="6">
@@ -1076,10 +990,8 @@
           <t>Škoda Kodiaq</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
+      <c r="B6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -1088,10 +1000,8 @@
           <t>BMW X2</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
+      <c r="B7" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1100,10 +1010,8 @@
           <t>Renault Rafale HEV</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
+      <c r="B8" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="9">
@@ -1112,10 +1020,8 @@
           <t>Mercedes-Benz E-Class</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
+      <c r="B9" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1124,10 +1030,8 @@
           <t>Suzuki Swift</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
+      <c r="B10" t="n">
+        <v>16.5</v>
       </c>
     </row>
     <row r="11">
@@ -1136,10 +1040,8 @@
           <t>Dacia Duster</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
+      <c r="B11" t="n">
+        <v>17.5</v>
       </c>
     </row>
     <row r="12">
@@ -1148,10 +1050,8 @@
           <t>Renault Espace</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
+      <c r="B12" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="13">
@@ -1160,10 +1060,8 @@
           <t>Toyota C-HR</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
+      <c r="B13" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1172,10 +1070,8 @@
           <t>Honda CR-V</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
+      <c r="B14" t="n">
+        <v>13.5</v>
       </c>
     </row>
     <row r="15">
@@ -1184,10 +1080,8 @@
           <t>NIO EL6</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
+      <c r="B15" t="n">
+        <v>15.5</v>
       </c>
     </row>
   </sheetData>
@@ -1227,10 +1121,8 @@
           <t>Ford Tourneo Custom</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
+      <c r="B2" t="n">
+        <v>3.75</v>
       </c>
     </row>
     <row r="3">
@@ -1239,10 +1131,8 @@
           <t>ZEEKR 001</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
+      <c r="B3" t="n">
+        <v>8.5</v>
       </c>
     </row>
     <row r="4">
@@ -1251,10 +1141,8 @@
           <t>MAXUS MIFA 7</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
+      <c r="B4" t="n">
+        <v>5.5</v>
       </c>
     </row>
     <row r="5">
@@ -1263,10 +1151,8 @@
           <t>VW Passat</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
+      <c r="B5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -1275,10 +1161,8 @@
           <t>Škoda Kodiaq</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
+      <c r="B6" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="7">
@@ -1287,10 +1171,8 @@
           <t>BMW X2</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
+      <c r="B7" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -1299,10 +1181,8 @@
           <t>Renault Rafale HEV</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
+      <c r="B8" t="n">
+        <v>4.25</v>
       </c>
     </row>
     <row r="9">
@@ -1311,10 +1191,8 @@
           <t>Mercedes-Benz E-Class</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
+      <c r="B9" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="10">
@@ -1323,10 +1201,8 @@
           <t>Suzuki Swift</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
+      <c r="B10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -1335,10 +1211,8 @@
           <t>Dacia Duster</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
+      <c r="B11" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -1347,10 +1221,8 @@
           <t>Renault Espace</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
+      <c r="B12" t="n">
+        <v>4.25</v>
       </c>
     </row>
     <row r="13">
@@ -1359,10 +1231,8 @@
           <t>Toyota C-HR</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
+      <c r="B13" t="n">
+        <v>5.5</v>
       </c>
     </row>
     <row r="14">
@@ -1371,10 +1241,8 @@
           <t>Honda CR-V</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
+      <c r="B14" t="n">
+        <v>3.75</v>
       </c>
     </row>
     <row r="15">
@@ -1383,10 +1251,8 @@
           <t>NIO EL6</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
+      <c r="B15" t="n">
+        <v>3.5</v>
       </c>
     </row>
   </sheetData>
@@ -1426,10 +1292,8 @@
           <t>Ford Tourneo Custom</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
+      <c r="B2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1438,10 +1302,8 @@
           <t>ZEEKR 001</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
+      <c r="B3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1450,10 +1312,8 @@
           <t>MAXUS MIFA 7</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
+      <c r="B4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1462,10 +1322,8 @@
           <t>VW Passat</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
+      <c r="B5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1474,10 +1332,8 @@
           <t>Škoda Kodiaq</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
+      <c r="B6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1486,10 +1342,8 @@
           <t>BMW X2</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
+      <c r="B7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1498,10 +1352,8 @@
           <t>Renault Rafale HEV</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
+      <c r="B8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1510,10 +1362,8 @@
           <t>Mercedes-Benz E-Class</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
+      <c r="B9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1522,10 +1372,8 @@
           <t>Suzuki Swift</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
+      <c r="B10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1534,10 +1382,8 @@
           <t>Dacia Duster</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
+      <c r="B11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1546,10 +1392,8 @@
           <t>Renault Espace</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
+      <c r="B12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1558,10 +1402,8 @@
           <t>Toyota C-HR</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
+      <c r="B13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1570,10 +1412,8 @@
           <t>Honda CR-V</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
+      <c r="B14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1582,10 +1422,8 @@
           <t>NIO EL6</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
+      <c r="B15" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1625,10 +1463,8 @@
           <t>Ford Tourneo Custom</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Default Red</t>
-        </is>
+      <c r="B2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1637,10 +1473,8 @@
           <t>ZEEKR 001</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Default Red</t>
-        </is>
+      <c r="B3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1649,10 +1483,8 @@
           <t>MAXUS MIFA 7</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Default Red</t>
-        </is>
+      <c r="B4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1661,10 +1493,8 @@
           <t>VW Passat</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Default Red</t>
-        </is>
+      <c r="B5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1673,10 +1503,8 @@
           <t>Škoda Kodiaq</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Default Red</t>
-        </is>
+      <c r="B6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1685,10 +1513,8 @@
           <t>BMW X2</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Default Red</t>
-        </is>
+      <c r="B7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1697,10 +1523,8 @@
           <t>Renault Rafale HEV</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Default Red</t>
-        </is>
+      <c r="B8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1709,10 +1533,8 @@
           <t>Mercedes-Benz E-Class</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Default Red</t>
-        </is>
+      <c r="B9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1721,10 +1543,8 @@
           <t>Suzuki Swift</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Default Red</t>
-        </is>
+      <c r="B10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1733,10 +1553,8 @@
           <t>Dacia Duster</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Default Red</t>
-        </is>
+      <c r="B11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1745,10 +1563,8 @@
           <t>Renault Espace</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Default Red</t>
-        </is>
+      <c r="B12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1757,10 +1573,8 @@
           <t>Toyota C-HR</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Default Red</t>
-        </is>
+      <c r="B13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1769,10 +1583,8 @@
           <t>Honda CR-V</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Default Red</t>
-        </is>
+      <c r="B14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1781,10 +1593,8 @@
           <t>NIO EL6</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Default Red</t>
-        </is>
+      <c r="B15" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1824,11 +1634,6 @@
           <t>Ford Tourneo Custom</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1836,11 +1641,6 @@
           <t>ZEEKR 001</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1848,11 +1648,6 @@
           <t>MAXUS MIFA 7</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1860,11 +1655,6 @@
           <t>VW Passat</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1872,11 +1662,6 @@
           <t>Škoda Kodiaq</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1884,11 +1669,6 @@
           <t>BMW X2</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1896,11 +1676,6 @@
           <t>Renault Rafale HEV</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1908,11 +1683,6 @@
           <t>Mercedes-Benz E-Class</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1920,11 +1690,6 @@
           <t>Suzuki Swift</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1932,11 +1697,6 @@
           <t>Dacia Duster</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1944,11 +1704,6 @@
           <t>Renault Espace</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1956,11 +1711,6 @@
           <t>Toyota C-HR</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1968,21 +1718,11 @@
           <t>Honda CR-V</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
           <t>NIO EL6</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Blue</t>
         </is>
       </c>
     </row>

--- a/Extracted Data/VRU Headform - Color-wise graphs/2024 Datasheets & Spreadsheets_combined.xlsx
+++ b/Extracted Data/VRU Headform - Color-wise graphs/2024 Datasheets & Spreadsheets_combined.xlsx
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>20</v>
+        <v>8.264462809917356</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15</v>
+        <v>5.952380952380952</v>
       </c>
     </row>
     <row r="4">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13</v>
+        <v>6.018518518518518</v>
       </c>
     </row>
     <row r="11">
@@ -558,7 +558,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>18</v>
+        <v>7.725321888412018</v>
       </c>
     </row>
     <row r="15">
@@ -609,7 +609,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>32</v>
+        <v>13.22314049586777</v>
       </c>
     </row>
     <row r="3">
@@ -619,7 +619,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>70</v>
+        <v>27.77777777777778</v>
       </c>
     </row>
     <row r="4">
@@ -629,7 +629,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53</v>
+        <v>23.04347826086957</v>
       </c>
     </row>
     <row r="5">
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>29</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="6">
@@ -649,7 +649,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>37</v>
+        <v>15.94827586206897</v>
       </c>
     </row>
     <row r="7">
@@ -659,7 +659,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>96</v>
+        <v>55.81395348837209</v>
       </c>
     </row>
     <row r="8">
@@ -669,7 +669,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>32</v>
+        <v>19.04761904761905</v>
       </c>
     </row>
     <row r="9">
@@ -679,7 +679,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>152</v>
+        <v>60.8</v>
       </c>
     </row>
     <row r="10">
@@ -689,7 +689,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>60</v>
+        <v>27.77777777777778</v>
       </c>
     </row>
     <row r="11">
@@ -699,7 +699,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>44</v>
+        <v>19.81981981981982</v>
       </c>
     </row>
     <row r="12">
@@ -709,7 +709,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>32</v>
+        <v>19.04761904761905</v>
       </c>
     </row>
     <row r="13">
@@ -719,7 +719,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>60</v>
+        <v>26.78571428571428</v>
       </c>
     </row>
     <row r="14">
@@ -729,7 +729,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>51</v>
+        <v>21.88841201716738</v>
       </c>
     </row>
     <row r="15">
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>100</v>
+        <v>38.75968992248063</v>
       </c>
     </row>
   </sheetData>
@@ -780,7 +780,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>65.25</v>
+        <v>35.9504132231405</v>
       </c>
     </row>
     <row r="3">
@@ -790,7 +790,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>37.5</v>
+        <v>19.84126984126984</v>
       </c>
     </row>
     <row r="4">
@@ -800,7 +800,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>81.75</v>
+        <v>47.39130434782609</v>
       </c>
     </row>
     <row r="5">
@@ -810,7 +810,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75.75</v>
+        <v>43.53448275862069</v>
       </c>
     </row>
     <row r="6">
@@ -820,7 +820,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>108.75</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="7">
@@ -830,7 +830,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>26.25</v>
+        <v>20.34883720930233</v>
       </c>
     </row>
     <row r="8">
@@ -840,7 +840,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>32.25</v>
+        <v>25.59523809523809</v>
       </c>
     </row>
     <row r="9">
@@ -850,7 +850,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>32.25</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>51</v>
+        <v>31.48148148148148</v>
       </c>
     </row>
     <row r="11">
@@ -870,7 +870,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>67.5</v>
+        <v>40.54054054054054</v>
       </c>
     </row>
     <row r="12">
@@ -880,7 +880,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>32.25</v>
+        <v>25.59523809523809</v>
       </c>
     </row>
     <row r="13">
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>72</v>
+        <v>42.85714285714285</v>
       </c>
     </row>
     <row r="14">
@@ -900,7 +900,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>75</v>
+        <v>42.91845493562232</v>
       </c>
     </row>
     <row r="15">
@@ -910,7 +910,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>53.25</v>
+        <v>27.51937984496124</v>
       </c>
     </row>
   </sheetData>
@@ -951,7 +951,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>23</v>
+        <v>19.00826446280992</v>
       </c>
     </row>
     <row r="3">
@@ -961,7 +961,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.5</v>
+        <v>12.3015873015873</v>
       </c>
     </row>
     <row r="4">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>7.82608695652174</v>
       </c>
     </row>
     <row r="5">
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22</v>
+        <v>18.96551724137931</v>
       </c>
     </row>
     <row r="6">
@@ -991,7 +991,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10</v>
+        <v>8.620689655172415</v>
       </c>
     </row>
     <row r="7">
@@ -1001,7 +1001,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10</v>
+        <v>11.62790697674419</v>
       </c>
     </row>
     <row r="8">
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>26</v>
+        <v>30.95238095238095</v>
       </c>
     </row>
     <row r="9">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="10">
@@ -1031,7 +1031,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16.5</v>
+        <v>15.27777777777778</v>
       </c>
     </row>
     <row r="11">
@@ -1041,7 +1041,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>17.5</v>
+        <v>15.76576576576577</v>
       </c>
     </row>
     <row r="12">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>26</v>
+        <v>30.95238095238095</v>
       </c>
     </row>
     <row r="13">
@@ -1061,7 +1061,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>10</v>
+        <v>8.928571428571429</v>
       </c>
     </row>
     <row r="14">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>13.5</v>
+        <v>11.58798283261803</v>
       </c>
     </row>
     <row r="15">
@@ -1081,7 +1081,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>15.5</v>
+        <v>12.01550387596899</v>
       </c>
     </row>
   </sheetData>
@@ -1122,7 +1122,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.75</v>
+        <v>6.198347107438017</v>
       </c>
     </row>
     <row r="3">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8.5</v>
+        <v>13.49206349206349</v>
       </c>
     </row>
     <row r="4">
@@ -1142,7 +1142,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.5</v>
+        <v>9.565217391304348</v>
       </c>
     </row>
     <row r="5">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>8.620689655172415</v>
       </c>
     </row>
     <row r="6">
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.5</v>
+        <v>4.310344827586207</v>
       </c>
     </row>
     <row r="7">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>4.651162790697674</v>
       </c>
     </row>
     <row r="8">
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.25</v>
+        <v>10.11904761904762</v>
       </c>
     </row>
     <row r="9">
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -1202,7 +1202,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>1.851851851851852</v>
       </c>
     </row>
     <row r="11">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>7.207207207207207</v>
       </c>
     </row>
     <row r="12">
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4.25</v>
+        <v>10.11904761904762</v>
       </c>
     </row>
     <row r="13">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5.5</v>
+        <v>9.821428571428571</v>
       </c>
     </row>
     <row r="14">
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.75</v>
+        <v>6.437768240343347</v>
       </c>
     </row>
     <row r="15">
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3.5</v>
+        <v>5.426356589147287</v>
       </c>
     </row>
   </sheetData>
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>8.264462809917356</v>
       </c>
     </row>
     <row r="3">
@@ -1303,7 +1303,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>16.66666666666667</v>
       </c>
     </row>
     <row r="4">
@@ -1313,7 +1313,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>6.086956521739131</v>
       </c>
     </row>
     <row r="5">
@@ -1323,7 +1323,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>11.20689655172414</v>
       </c>
     </row>
     <row r="6">
@@ -1333,7 +1333,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>3.448275862068965</v>
       </c>
     </row>
     <row r="7">
@@ -1343,7 +1343,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>5.232558139534884</v>
       </c>
     </row>
     <row r="8">
@@ -1353,7 +1353,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>10.71428571428571</v>
       </c>
     </row>
     <row r="9">
@@ -1363,7 +1363,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>7.199999999999999</v>
       </c>
     </row>
     <row r="10">
@@ -1373,7 +1373,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>8.333333333333332</v>
       </c>
     </row>
     <row r="11">
@@ -1383,7 +1383,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>12.16216216216216</v>
       </c>
     </row>
     <row r="12">
@@ -1393,7 +1393,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>10.71428571428571</v>
       </c>
     </row>
     <row r="13">
@@ -1403,7 +1403,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>11.60714285714286</v>
       </c>
     </row>
     <row r="14">
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>5.150214592274678</v>
       </c>
     </row>
     <row r="15">
@@ -1423,7 +1423,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>12.4031007751938</v>
       </c>
     </row>
   </sheetData>
@@ -1464,7 +1464,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>5.785123966942149</v>
       </c>
     </row>
     <row r="3">
@@ -1474,7 +1474,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>3.968253968253968</v>
       </c>
     </row>
     <row r="4">
@@ -1484,7 +1484,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>6.086956521739131</v>
       </c>
     </row>
     <row r="5">
@@ -1494,7 +1494,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>5.172413793103448</v>
       </c>
     </row>
     <row r="6">
@@ -1504,7 +1504,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>5.172413793103448</v>
       </c>
     </row>
     <row r="7">
@@ -1514,7 +1514,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>2.325581395348837</v>
       </c>
     </row>
     <row r="8">
@@ -1524,7 +1524,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>3.571428571428571</v>
       </c>
     </row>
     <row r="9">
@@ -1534,7 +1534,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="10">
@@ -1544,7 +1544,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>9.25925925925926</v>
       </c>
     </row>
     <row r="11">
@@ -1554,7 +1554,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>4.504504504504505</v>
       </c>
     </row>
     <row r="12">
@@ -1564,7 +1564,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>3.571428571428571</v>
       </c>
     </row>
     <row r="13">
@@ -1584,7 +1584,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>4.291845493562231</v>
       </c>
     </row>
     <row r="15">
@@ -1594,7 +1594,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>3.875968992248062</v>
       </c>
     </row>
   </sheetData>
@@ -1634,6 +1634,9 @@
           <t>Ford Tourneo Custom</t>
         </is>
       </c>
+      <c r="B2" t="n">
+        <v>3.305785123966942</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1641,6 +1644,9 @@
           <t>ZEEKR 001</t>
         </is>
       </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1648,6 +1654,9 @@
           <t>MAXUS MIFA 7</t>
         </is>
       </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1655,6 +1664,9 @@
           <t>VW Passat</t>
         </is>
       </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1662,6 +1674,9 @@
           <t>Škoda Kodiaq</t>
         </is>
       </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1669,6 +1684,9 @@
           <t>BMW X2</t>
         </is>
       </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1676,6 +1694,9 @@
           <t>Renault Rafale HEV</t>
         </is>
       </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1683,6 +1704,9 @@
           <t>Mercedes-Benz E-Class</t>
         </is>
       </c>
+      <c r="B9" t="n">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1690,6 +1714,9 @@
           <t>Suzuki Swift</t>
         </is>
       </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1697,6 +1724,9 @@
           <t>Dacia Duster</t>
         </is>
       </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1704,6 +1734,9 @@
           <t>Renault Espace</t>
         </is>
       </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1711,6 +1744,9 @@
           <t>Toyota C-HR</t>
         </is>
       </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1718,12 +1754,18 @@
           <t>Honda CR-V</t>
         </is>
       </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
           <t>NIO EL6</t>
         </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
